--- a/sqlserver2019/docs/sql2019_ParamGenerator.xlsx
+++ b/sqlserver2019/docs/sql2019_ParamGenerator.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeMine\nm-chocolatey-packs\sqlserver2019\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A856F947-7F99-441F-8D7E-EE65487439AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E6C4A3-9839-463C-83C1-F8BD1F857282}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$O$93</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="219">
   <si>
     <t>Source</t>
   </si>
@@ -796,12 +798,30 @@
   <si>
     <t>/SQL_INST_JAVA</t>
   </si>
+  <si>
+    <t>MSSQLSERVER</t>
+  </si>
+  <si>
+    <t>NT Authority\NETWORK SERVICE</t>
+  </si>
+  <si>
+    <t>22222-00000-00000-00000-00000</t>
+  </si>
+  <si>
+    <t>SQLEngine</t>
+  </si>
+  <si>
+    <t>/QUIET</t>
+  </si>
+  <si>
+    <t>/QUIETSIMPLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -871,6 +891,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -911,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -955,6 +982,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1272,14 +1301,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" customWidth="1"/>
     <col min="3" max="3" width="44.109375" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
@@ -1388,26 +1418,26 @@
         <v>14</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f t="shared" ref="J4:J72" si="0">"choco:sqlserver"&amp;$D$2&amp;":"&amp;C4</f>
+        <f t="shared" ref="J4:J8" si="0">"choco:sqlserver"&amp;$D$2&amp;":"&amp;C4</f>
         <v>choco:sqlserver2019:ACTION</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ref="L4:L72" si="1">IF(K4,"if (!(Test-Path env:\"&amp;J4&amp;")){$env:"&amp;J4&amp;"="""&amp;G4&amp;"""}","")</f>
+        <f t="shared" ref="L4:L8" si="1">IF(K4,"if (!(Test-Path env:\"&amp;J4&amp;")){$env:"&amp;J4&amp;"="""&amp;G4&amp;"""}","")</f>
         <v>if (!(Test-Path env:\choco:sqlserver2019:ACTION)){$env:choco:sqlserver2019:ACTION="Install"}</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M72" si="2">"if (Test-Path env:\"&amp;J4&amp;"){Add-Content $configFile """&amp;C4&amp;"=`""$env:"&amp;J4&amp;"`""""}"</f>
+        <f t="shared" ref="M4:M8" si="2">"if (Test-Path env:\"&amp;J4&amp;"){Add-Content $configFile """&amp;C4&amp;"=`""$env:"&amp;J4&amp;"`""""}"</f>
         <v>if (Test-Path env:\choco:sqlserver2019:ACTION){Add-Content $configFile "ACTION=`"$env:choco:sqlserver2019:ACTION`""}</v>
       </c>
       <c r="N4" s="3" t="str">
-        <f t="shared" ref="N4:N72" si="3">"$env:"&amp;J4&amp;"="""""</f>
+        <f t="shared" ref="N4:N8" si="3">"$env:"&amp;J4&amp;"="""""</f>
         <v>$env:choco:sqlserver2019:ACTION=""</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="72.599999999999994" thickBot="1">
+    <row r="5" spans="1:15" ht="115.8" thickBot="1">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -1419,11 +1449,15 @@
         <v>SUPPRESSPRIVACYSTATEMENTNOTICE</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
       <c r="F5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>choco:sqlserver2019:SUPPRESSPRIVACYSTATEMENTNOTICE</v>
@@ -1433,7 +1467,7 @@
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2019:SUPPRESSPRIVACYSTATEMENTNOTICE)){$env:choco:sqlserver2019:SUPPRESSPRIVACYSTATEMENTNOTICE=""}</v>
+        <v>if (!(Test-Path env:\choco:sqlserver2019:SUPPRESSPRIVACYSTATEMENTNOTICE)){$env:choco:sqlserver2019:SUPPRESSPRIVACYSTATEMENTNOTICE="TRUE"}</v>
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1444,7 +1478,7 @@
         <v>$env:choco:sqlserver2019:SUPPRESSPRIVACYSTATEMENTNOTICE=""</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="72.599999999999994" thickBot="1">
+    <row r="6" spans="1:15" ht="115.8" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
@@ -1456,18 +1490,25 @@
         <v>IACCEPTSQLSERVERLICENSETERMS</v>
       </c>
       <c r="D6" s="4"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>choco:sqlserver2019:IACCEPTSQLSERVERLICENSETERMS</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2019:IACCEPTSQLSERVERLICENSETERMS)){$env:choco:sqlserver2019:IACCEPTSQLSERVERLICENSETERMS="TRUE"}</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1478,7 +1519,7 @@
         <v>$env:choco:sqlserver2019:IACCEPTSQLSERVERLICENSETERMS=""</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="72.599999999999994" thickBot="1">
+    <row r="7" spans="1:15" ht="101.4" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -1490,18 +1531,25 @@
         <v>IACCEPTPYTHONLICENSETERMS</v>
       </c>
       <c r="D7" s="4"/>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>choco:sqlserver2019:IACCEPTPYTHONLICENSETERMS</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
       <c r="L7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2019:IACCEPTPYTHONLICENSETERMS)){$env:choco:sqlserver2019:IACCEPTPYTHONLICENSETERMS="TRUE"}</v>
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1512,7 +1560,7 @@
         <v>$env:choco:sqlserver2019:IACCEPTPYTHONLICENSETERMS=""</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="72.599999999999994" thickBot="1">
+    <row r="8" spans="1:15" ht="101.4" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -1524,18 +1572,25 @@
         <v>IACCEPTROPENLICENSETERMS</v>
       </c>
       <c r="D8" s="4"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>choco:sqlserver2019:IACCEPTROPENLICENSETERMS</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2019:IACCEPTROPENLICENSETERMS)){$env:choco:sqlserver2019:IACCEPTROPENLICENSETERMS="TRUE"}</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1546,7 +1601,7 @@
         <v>$env:choco:sqlserver2019:IACCEPTROPENLICENSETERMS=""</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="101.4" thickBot="1">
+    <row r="9" spans="1:15" ht="84.6" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1558,17 +1613,25 @@
         <v>ENU</v>
       </c>
       <c r="D9" s="4"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9" s="13" t="s">
         <v>16</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" ref="J9:J72" si="5">"choco:sqlserver"&amp;$D$2&amp;":"&amp;C9</f>
         <v>choco:sqlserver2019:ENU</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
       <c r="L9" s="6" t="str">
         <f t="shared" ref="L9:L72" si="6">IF(K9,"if (!(Test-Path env:\"&amp;J9&amp;")){$env:"&amp;J9&amp;"="""&amp;G9&amp;"""}","")</f>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2019:ENU)){$env:choco:sqlserver2019:ENU="TRUE"}</v>
       </c>
       <c r="M9" s="6" t="str">
         <f t="shared" ref="M9:M72" si="7">"if (Test-Path env:\"&amp;J9&amp;"){Add-Content $configFile """&amp;C9&amp;"=`""$env:"&amp;J9&amp;"`""""}"</f>
@@ -1579,7 +1642,7 @@
         <v>$env:choco:sqlserver2019:ENU=""</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="101.4" thickBot="1">
+    <row r="10" spans="1:15" ht="87" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
@@ -1715,7 +1778,7 @@
         <v>$env:choco:sqlserver2019:ERRORREPORTING=""</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="101.4" thickBot="1">
+    <row r="14" spans="1:15" ht="72.599999999999994" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1733,14 +1796,19 @@
       <c r="F14" s="13" t="s">
         <v>61</v>
       </c>
+      <c r="G14" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="5"/>
         <v>choco:sqlserver2019:FEATURES</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
       <c r="L14" s="6" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2019:FEATURES)){$env:choco:sqlserver2019:FEATURES="SQLEngine"}</v>
       </c>
       <c r="M14" s="6" t="str">
         <f t="shared" si="7"/>
@@ -1751,7 +1819,7 @@
         <v>$env:choco:sqlserver2019:FEATURES=""</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="101.4" thickBot="1">
+    <row r="15" spans="1:15" ht="72.599999999999994" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1954,7 @@
         <v>$env:choco:sqlserver2019:INSTALLSHAREDWOWDIR=""</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="101.4" thickBot="1">
+    <row r="19" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1919,7 +1987,7 @@
         <v>$env:choco:sqlserver2019:INSTANCEDIR=""</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="101.4" thickBot="1">
+    <row r="20" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1953,7 +2021,7 @@
         <v>$env:choco:sqlserver2019:INSTANCEID=""</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="101.4" thickBot="1">
+    <row r="21" spans="1:14" ht="87" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>13</v>
       </c>
@@ -1971,14 +2039,19 @@
       <c r="F21" s="13" t="s">
         <v>71</v>
       </c>
+      <c r="G21" s="18" t="s">
+        <v>213</v>
+      </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="5"/>
         <v>choco:sqlserver2019:INSTANCENAME</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
       <c r="L21" s="6" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2019:INSTANCENAME)){$env:choco:sqlserver2019:INSTANCENAME="MSSQLSERVER"}</v>
       </c>
       <c r="M21" s="6" t="str">
         <f t="shared" si="7"/>
@@ -2004,6 +2077,9 @@
       <c r="F22" s="13" t="s">
         <v>74</v>
       </c>
+      <c r="G22" t="s">
+        <v>214</v>
+      </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="5"/>
         <v>choco:sqlserver2019:PBENGSVCACCOUNT</v>
@@ -2088,7 +2164,7 @@
         <v>$env:choco:sqlserver2019:PBENGSVCSTARTUPTYPE=""</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="101.4" thickBot="1">
+    <row r="25" spans="1:14" ht="87" thickBot="1">
       <c r="A25" s="13" t="s">
         <v>72</v>
       </c>
@@ -2156,7 +2232,7 @@
         <v>$env:choco:sqlserver2019:PBSCALEOUT=""</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="101.4" thickBot="1">
+    <row r="27" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A27" s="13" t="s">
         <v>13</v>
       </c>
@@ -2168,18 +2244,25 @@
         <v>PID</v>
       </c>
       <c r="D27" s="4"/>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="19" t="s">
+        <v>215</v>
+      </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="5"/>
         <v>choco:sqlserver2019:PID</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
       <c r="L27" s="6" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2019:PID)){$env:choco:sqlserver2019:PID="22222-00000-00000-00000-00000"}</v>
       </c>
       <c r="M27" s="6" t="str">
         <f t="shared" si="7"/>
@@ -2190,37 +2273,42 @@
         <v>$env:choco:sqlserver2019:PID=""</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="101.4" thickBot="1">
+    <row r="28" spans="1:14" ht="87" thickBot="1">
       <c r="A28" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="C28" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>Q or QUIET</v>
+        <v>QUIET</v>
       </c>
       <c r="D28" s="4"/>
       <c r="F28" s="13" t="s">
         <v>85</v>
       </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>choco:sqlserver2019:Q or QUIET</v>
-      </c>
-      <c r="K28" s="1"/>
+        <v>choco:sqlserver2019:QUIET</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
       <c r="L28" s="6" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2019:QUIET)){$env:choco:sqlserver2019:QUIET="TRUE"}</v>
       </c>
       <c r="M28" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>if (Test-Path env:\choco:sqlserver2019:Q or QUIET){Add-Content $configFile "Q or QUIET=`"$env:choco:sqlserver2019:Q or QUIET`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2019:QUIET){Add-Content $configFile "QUIET=`"$env:choco:sqlserver2019:QUIET`""}</v>
       </c>
       <c r="N28" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>$env:choco:sqlserver2019:Q or QUIET=""</v>
+        <v>$env:choco:sqlserver2019:QUIET=""</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="101.4" thickBot="1">
@@ -2228,35 +2316,40 @@
         <v>13</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C29" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>QS or QUIETSIMPLE</v>
+        <v>QUIETSIMPLE</v>
       </c>
       <c r="D29" s="4"/>
       <c r="F29" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>choco:sqlserver2019:QS or QUIETSIMPLE</v>
-      </c>
-      <c r="K29" s="1"/>
+        <v>choco:sqlserver2019:QUIETSIMPLE</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
       <c r="L29" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M29" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>if (Test-Path env:\choco:sqlserver2019:QS or QUIETSIMPLE){Add-Content $configFile "QS or QUIETSIMPLE=`"$env:choco:sqlserver2019:QS or QUIETSIMPLE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2019:QUIETSIMPLE){Add-Content $configFile "QUIETSIMPLE=`"$env:choco:sqlserver2019:QUIETSIMPLE`""}</v>
       </c>
       <c r="N29" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>$env:choco:sqlserver2019:QS or QUIETSIMPLE=""</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="101.4" thickBot="1">
+        <v>$env:choco:sqlserver2019:QUIETSIMPLE=""</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
@@ -2322,7 +2415,7 @@
         <v>$env:choco:sqlserver2019:SQMREPORTING=""</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="101.4" thickBot="1">
+    <row r="32" spans="1:14" ht="87" thickBot="1">
       <c r="A32" s="13" t="s">
         <v>13</v>
       </c>
@@ -2458,7 +2551,7 @@
         <v>$env:choco:sqlserver2019:AGTSVCSTARTUPTYPE=""</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="101.4" thickBot="1">
+    <row r="36" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A36" s="13" t="s">
         <v>28</v>
       </c>
@@ -2491,7 +2584,7 @@
         <v>$env:choco:sqlserver2019:ASBACKUPDIR=""</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="101.4" thickBot="1">
+    <row r="37" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A37" s="13" t="s">
         <v>28</v>
       </c>
@@ -2525,7 +2618,7 @@
         <v>$env:choco:sqlserver2019:ASCOLLATION=""</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="101.4" thickBot="1">
+    <row r="38" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A38" s="13" t="s">
         <v>28</v>
       </c>
@@ -2558,7 +2651,7 @@
         <v>$env:choco:sqlserver2019:ASCONFIGDIR=""</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="101.4" thickBot="1">
+    <row r="39" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A39" s="13" t="s">
         <v>28</v>
       </c>
@@ -2591,7 +2684,7 @@
         <v>$env:choco:sqlserver2019:ASDATADIR=""</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="101.4" thickBot="1">
+    <row r="40" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A40" s="13" t="s">
         <v>28</v>
       </c>
@@ -2624,7 +2717,7 @@
         <v>$env:choco:sqlserver2019:ASLOGDIR=""</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="101.4" thickBot="1">
+    <row r="41" spans="1:14" ht="87" thickBot="1">
       <c r="A41" s="13" t="s">
         <v>28</v>
       </c>
@@ -2657,7 +2750,7 @@
         <v>$env:choco:sqlserver2019:ASSERVERMODE=""</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="101.4" thickBot="1">
+    <row r="42" spans="1:14" ht="87" thickBot="1">
       <c r="A42" s="13" t="s">
         <v>28</v>
       </c>
@@ -2796,7 +2889,7 @@
         <v>$env:choco:sqlserver2019:ASSYSADMINACCOUNTS=""</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="101.4" thickBot="1">
+    <row r="46" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A46" s="13" t="s">
         <v>28</v>
       </c>
@@ -2863,7 +2956,7 @@
         <v>$env:choco:sqlserver2019:ASPROVIDERMSOLAP=""</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="101.4" thickBot="1">
+    <row r="48" spans="1:14" ht="87" thickBot="1">
       <c r="A48" s="13" t="s">
         <v>28</v>
       </c>
@@ -2929,7 +3022,7 @@
         <v>$env:choco:sqlserver2019:FARMPASSWORD=""</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="101.4" thickBot="1">
+    <row r="50" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A50" s="13" t="s">
         <v>28</v>
       </c>
@@ -3030,7 +3123,7 @@
         <v>$env:choco:sqlserver2019:BROWSERSVCSTARTUPTYPE=""</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="101.4" thickBot="1">
+    <row r="53" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A53" s="13" t="s">
         <v>32</v>
       </c>
@@ -3098,7 +3191,7 @@
         <v>$env:choco:sqlserver2019:INSTALLSQLDATADIR=""</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="101.4" thickBot="1">
+    <row r="55" spans="1:14" ht="72.599999999999994" thickBot="1">
       <c r="A55" s="13" t="s">
         <v>32</v>
       </c>
@@ -3133,7 +3226,7 @@
         <v>$env:choco:sqlserver2019:SAPWD=""</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="101.4" thickBot="1">
+    <row r="56" spans="1:14" ht="87" thickBot="1">
       <c r="A56" s="13" t="s">
         <v>32</v>
       </c>
@@ -3166,7 +3259,7 @@
         <v>$env:choco:sqlserver2019:SECURITYMODE=""</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="101.4" thickBot="1">
+    <row r="57" spans="1:14" ht="87" thickBot="1">
       <c r="A57" s="13" t="s">
         <v>32</v>
       </c>
@@ -3199,7 +3292,7 @@
         <v>$env:choco:sqlserver2019:SQLBACKUPDIR=""</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="101.4" thickBot="1">
+    <row r="58" spans="1:14" ht="87" thickBot="1">
       <c r="A58" s="13" t="s">
         <v>32</v>
       </c>
@@ -3232,7 +3325,7 @@
         <v>$env:choco:sqlserver2019:SQLCOLLATION=""</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="101.4" thickBot="1">
+    <row r="59" spans="1:14" ht="115.8" thickBot="1">
       <c r="A59" s="13" t="s">
         <v>32</v>
       </c>
@@ -3633,7 +3726,7 @@
         <v>$env:choco:sqlserver2019:SQLTEMPDBLOGFILEGROWTH=""</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="101.4" thickBot="1">
+    <row r="71" spans="1:14" ht="87" thickBot="1">
       <c r="A71" s="13" t="s">
         <v>32</v>
       </c>
@@ -3733,7 +3826,7 @@
         <v>$env:choco:sqlserver2019:SQLUSERDBLOGDIR=""</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="101.4" thickBot="1">
+    <row r="74" spans="1:14" ht="84.6" thickBot="1">
       <c r="A74" s="13" t="s">
         <v>32</v>
       </c>
@@ -4381,6 +4474,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:O93" xr:uid="{A9192F7B-AD92-47A5-84A9-0AECBCD722BB}"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{0D953F4A-D512-44E8-84BF-CB9661D98E9C}"/>
     <hyperlink ref="F5" r:id="rId2" display="https://docs.microsoft.com/en-us/sql/sql-server/sql-server-privacy?view=sql-server-ver15" xr:uid="{5C182B52-B77D-4BBB-B36E-F700A6CD274E}"/>
@@ -4398,6 +4492,7 @@
     <hyperlink ref="F92" r:id="rId14" display="https://docs.microsoft.com/en-us/sql/machine-learning/install/sql-ml-component-install-without-internet-access" xr:uid="{C2B85AEF-C393-40B7-B760-9C1DAE3E88B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
